--- a/Códigos/BD Financiero.xlsx
+++ b/Códigos/BD Financiero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Actuariado\Pensiones I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6f33fa7f78ea46e2aaca-my.sharepoint.com/personal/maricruz_vasquez_ucr_ac_cr/Documents/Documents/UCR/Actuariales/CA0412 Pensiones I/Informe 3/Pensiones/Códigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B508F-F91D-4BD8-BBBD-B49DAA27B6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{D42B508F-F91D-4BD8-BBBD-B49DAA27B6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC10663-EFD1-4951-B009-A65E6D912E4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EEFF" sheetId="27" r:id="rId1"/>
@@ -338,8 +338,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
@@ -887,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,20 +935,20 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -957,11 +957,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,7 +1003,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1030,14 +1030,14 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1069,47 +1069,116 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="49" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="8" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="13" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="15" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="14" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="4" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="7" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="11" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="9" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="9" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="13" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="15" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="5" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="6" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="7" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="11" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="14" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Millares 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Millares 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28" customBuiltin="1"/>
@@ -1118,15 +1187,12 @@
     <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="49" xr:uid="{5A53CC59-22B9-4EFF-AF88-D7DC4E06482D}"/>
     <cellStyle name="Notas 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Output" xfId="12" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Porcentaje 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Salida" xfId="12" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="16" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="3" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="5" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="6" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,6 +1567,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1788,13 +1858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5700BF4-7352-4296-8678-FB0C4BD2CC1B}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="35" customWidth="1"/>
@@ -2502,6 +2572,24 @@
       </c>
       <c r="B95" s="23">
         <v>1989350214.7200022</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="35">
+        <f>B89/B88</f>
+        <v>0.50736887549152787</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="35">
+        <f>B90/B88</f>
+        <v>0.4308062936705403</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="35">
+        <f>B91/B88</f>
+        <v>6.182483083793186E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2518,12 +2606,12 @@
   </sheetPr>
   <dimension ref="A2:H124"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
@@ -6091,13 +6179,13 @@
   <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E124" sqref="E4:F124"/>
       <selection pane="bottomLeft" activeCell="E124" sqref="E4:F124"/>
       <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -9452,3356 +9540,3856 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E124" sqref="E4:F124"/>
       <selection pane="bottomLeft" activeCell="E124" sqref="E4:F124"/>
-      <selection pane="bottomRight" activeCell="E104" sqref="E104:F124"/>
+      <selection pane="bottomRight" activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="9" width="16" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="16" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="56" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="56" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="56" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="28">
+      <c r="A4" s="55"/>
+      <c r="B4" s="58">
         <f>+'Activo-EEFF'!B4</f>
         <v>41609</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="59">
         <f>+'Activo-EEFF'!C4</f>
         <v>89112329000.000015</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="60">
         <f>+'Activo-EEFF'!E4</f>
         <v>7258004255.3000002</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="61">
         <v>90755446.080521464</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="61">
         <v>11891502.922418669</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="28">
+      <c r="B5" s="58">
         <f>+'Activo-EEFF'!B5</f>
         <v>41640</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="59">
         <f>+'Activo-EEFF'!C5</f>
         <v>92949958000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="60">
         <f>+'Activo-EEFF'!E5</f>
         <v>9182714745.8600006</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="61">
         <v>104130355.75583051</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="61">
         <v>12085500.67296882</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="62">
+        <f t="shared" ref="J5:J68" si="0">E5-F5</f>
+        <v>92044855.082861692</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="28">
+      <c r="B6" s="58">
         <f>+'Activo-EEFF'!B6</f>
         <v>41671</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="59">
         <f>+'Activo-EEFF'!C6</f>
         <v>94987693000.000015</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="60">
         <f>+'Activo-EEFF'!E6</f>
         <v>9722978099.2280006</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="61">
         <v>119886278.92167294</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="61">
         <v>11032899.721502077</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="62">
+        <f t="shared" si="0"/>
+        <v>108853379.20017086</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="28">
+      <c r="B7" s="58">
         <f>+'Activo-EEFF'!B7</f>
         <v>41699</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="59">
         <f>+'Activo-EEFF'!C7</f>
         <v>96809776000.000015</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="60">
         <f>+'Activo-EEFF'!E7</f>
         <v>9983212500.3199997</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="61">
         <v>132138440.82319812</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="61">
         <v>11673104.608842779</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="62">
+        <f t="shared" si="0"/>
+        <v>120465336.21435535</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="28">
+      <c r="B8" s="58">
         <f>+'Activo-EEFF'!B8</f>
         <v>41730</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="59">
         <f>+'Activo-EEFF'!C8</f>
         <v>91942282000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="60">
         <f>+'Activo-EEFF'!E8</f>
         <v>10479840619.945999</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="61">
         <v>158187828.52908725</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="61">
         <v>12077213.929957224</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="62">
+        <f t="shared" si="0"/>
+        <v>146110614.59913003</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="N8" s="64"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="28">
+      <c r="B9" s="58">
         <f>+'Activo-EEFF'!B9</f>
         <v>41760</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="59">
         <f>+'Activo-EEFF'!C9</f>
         <v>93721767000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="60">
         <f>+'Activo-EEFF'!E9</f>
         <v>10699747318.032999</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="61">
         <v>184043869.34284097</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="61">
         <v>12131061.433447868</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="62">
+        <f t="shared" si="0"/>
+        <v>171912807.9093931</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="N9" s="64"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="28">
+      <c r="B10" s="58">
         <f>+'Activo-EEFF'!B10</f>
         <v>41791</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="59">
         <f>+'Activo-EEFF'!C10</f>
         <v>95031819000</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="60">
         <f>+'Activo-EEFF'!E10</f>
         <v>10535881167.309</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="61">
         <v>212775289.94261643</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="61">
         <v>11843378.456727728</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="62">
+        <f t="shared" si="0"/>
+        <v>200931911.48588872</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="N10" s="64"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="28">
+      <c r="B11" s="58">
         <f>+'Activo-EEFF'!B11</f>
         <v>41821</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="59">
         <f>+'Activo-EEFF'!C11</f>
         <v>97155133000</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="60">
         <f>+'Activo-EEFF'!E11</f>
         <v>11170911053.346001</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="61">
         <v>122311164.58168818</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="61">
         <v>12063371.833241137</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62">
+        <f t="shared" si="0"/>
+        <v>110247792.74844705</v>
+      </c>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="28">
+      <c r="B12" s="58">
         <f>+'Activo-EEFF'!B12</f>
         <v>41852</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="59">
         <f>+'Activo-EEFF'!C12</f>
         <v>98431911000</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="60">
         <f>+'Activo-EEFF'!E12</f>
         <v>10978481100.666</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="61">
         <v>268660962.2458483</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="61">
         <v>12922073.68236877</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62">
+        <f t="shared" si="0"/>
+        <v>255738888.56347954</v>
+      </c>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="N12" s="64"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="28">
+      <c r="B13" s="58">
         <f>+'Activo-EEFF'!B13</f>
         <v>41883</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="59">
         <f>+'Activo-EEFF'!C13</f>
         <v>99848044000</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="60">
         <f>+'Activo-EEFF'!E13</f>
         <v>10567162037.282</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="61">
         <v>214336885.75699422</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="61">
         <v>13242793.677640019</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62">
+        <f t="shared" si="0"/>
+        <v>201094092.0793542</v>
+      </c>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="N13" s="64"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="28">
+      <c r="B14" s="58">
         <f>+'Activo-EEFF'!B14</f>
         <v>41913</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="59">
         <f>+'Activo-EEFF'!C14</f>
         <v>101204051000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="60">
         <f>+'Activo-EEFF'!E14</f>
         <v>10401596232.129</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="61">
         <v>219496839.28328174</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="61">
         <v>15101105.329929408</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62">
+        <f t="shared" si="0"/>
+        <v>204395733.95335233</v>
+      </c>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="28">
+      <c r="B15" s="58">
         <f>+'Activo-EEFF'!B15</f>
         <v>41944</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="59">
         <f>+'Activo-EEFF'!C15</f>
         <v>102382892000</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="60">
         <f>+'Activo-EEFF'!E15</f>
         <v>10147171745.730999</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="61">
         <v>137587289.95871481</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="61">
         <v>13574391.913625142</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="62">
+        <f t="shared" si="0"/>
+        <v>124012898.04508968</v>
+      </c>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="28">
+      <c r="B16" s="58">
         <f>+'Activo-EEFF'!B16</f>
         <v>41974</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="59">
         <f>+'Activo-EEFF'!C16</f>
         <v>103616162000.00002</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="60">
         <f>+'Activo-EEFF'!E16</f>
         <v>9944427190.3899994</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="61">
         <v>287208076.8068772</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="61">
         <v>13764989.895337051</v>
       </c>
-      <c r="G16" s="12" t="e">
+      <c r="G16" s="60" t="e">
         <f>+#REF!+SUM(E5:E16)-SUM(F5:F16)</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="12" t="e">
+      <c r="H16" s="60" t="e">
         <f>+#REF!-G16</f>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="13" t="e">
+      <c r="I16" s="65" t="e">
         <f>2*H16/(#REF!+#REF!-H16)</f>
         <v>#REF!</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="62">
+        <f t="shared" si="0"/>
+        <v>273443086.91154015</v>
+      </c>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="28">
+      <c r="B17" s="58">
         <f>+'Activo-EEFF'!B17</f>
         <v>42005</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="59">
         <f>+'Activo-EEFF'!C17</f>
         <v>105236459000.00002</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="60">
         <f>+'Activo-EEFF'!E17</f>
         <v>9350266444.2789993</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="61">
         <v>202595781.55241302</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="61">
         <v>13657965.607203353</v>
       </c>
-      <c r="G17" s="12" t="e">
+      <c r="G17" s="60" t="e">
         <f>+#REF!+SUM(E6:E17)-SUM(F6:F17)</f>
         <v>#REF!</v>
       </c>
-      <c r="H17" s="12" t="e">
+      <c r="H17" s="60" t="e">
         <f>+#REF!-G17</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="13" t="e">
+      <c r="I17" s="65" t="e">
         <f>2*H17/(#REF!+#REF!-H17)</f>
         <v>#REF!</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="62">
+        <f t="shared" si="0"/>
+        <v>188937815.94520965</v>
+      </c>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="28">
+      <c r="B18" s="58">
         <f>+'Activo-EEFF'!B18</f>
         <v>42036</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="59">
         <f>+'Activo-EEFF'!C18</f>
         <v>106854192000</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="60">
         <f>+'Activo-EEFF'!E18</f>
         <v>9006744435.4060001</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="61">
         <v>229481959.94069824</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="61">
         <v>14555541.676625565</v>
       </c>
-      <c r="G18" s="12" t="e">
+      <c r="G18" s="60" t="e">
         <f>+#REF!+SUM(E7:E18)-SUM(F7:F18)</f>
         <v>#REF!</v>
       </c>
-      <c r="H18" s="12" t="e">
+      <c r="H18" s="60" t="e">
         <f>+#REF!-G18</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="13" t="e">
+      <c r="I18" s="65" t="e">
         <f>2*H18/(#REF!+#REF!-H18)</f>
         <v>#REF!</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="62">
+        <f t="shared" si="0"/>
+        <v>214926418.26407266</v>
+      </c>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="28">
+      <c r="B19" s="58">
         <f>+'Activo-EEFF'!B19</f>
         <v>42064</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="59">
         <f>+'Activo-EEFF'!C19</f>
         <v>108018285000.00002</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="60">
         <f>+'Activo-EEFF'!E19</f>
         <v>8590617700.434</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="61">
         <v>275948487.01463652</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="61">
         <v>14207383.03569689</v>
       </c>
-      <c r="G19" s="12" t="e">
+      <c r="G19" s="60" t="e">
         <f>+#REF!+SUM(E8:E19)-SUM(F8:F19)</f>
         <v>#REF!</v>
       </c>
-      <c r="H19" s="12" t="e">
+      <c r="H19" s="60" t="e">
         <f>+#REF!-G19</f>
         <v>#REF!</v>
       </c>
-      <c r="I19" s="13" t="e">
+      <c r="I19" s="65" t="e">
         <f>2*H19/(#REF!+#REF!-H19)</f>
         <v>#REF!</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="62">
+        <f t="shared" si="0"/>
+        <v>261741103.97893962</v>
+      </c>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="28">
+      <c r="B20" s="58">
         <f>+'Activo-EEFF'!B20</f>
         <v>42095</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="59">
         <f>+'Activo-EEFF'!C20</f>
         <v>109655848000</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="60">
         <f>+'Activo-EEFF'!E20</f>
         <v>8603888070.1259995</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="61">
         <v>127971086.84255815</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="61">
         <v>13525874.310825888</v>
       </c>
-      <c r="G20" s="12" t="e">
+      <c r="G20" s="60" t="e">
         <f>+#REF!+SUM(E9:E20)-SUM(F9:F20)</f>
         <v>#REF!</v>
       </c>
-      <c r="H20" s="12" t="e">
+      <c r="H20" s="60" t="e">
         <f>+#REF!-G20</f>
         <v>#REF!</v>
       </c>
-      <c r="I20" s="13" t="e">
+      <c r="I20" s="65" t="e">
         <f>2*H20/(#REF!+#REF!-H20)</f>
         <v>#REF!</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="62">
+        <f t="shared" si="0"/>
+        <v>114445212.53173226</v>
+      </c>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="28">
+      <c r="B21" s="58">
         <f>+'Activo-EEFF'!B21</f>
         <v>42125</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="59">
         <f>+'Activo-EEFF'!C21</f>
         <v>111510465000</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="60">
         <f>+'Activo-EEFF'!E21</f>
         <v>8536098951.2349997</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="61">
         <v>311141562.877303</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="61">
         <v>14715295.918676587</v>
       </c>
-      <c r="G21" s="12" t="e">
+      <c r="G21" s="60" t="e">
         <f>+#REF!+SUM(E10:E21)-SUM(F10:F21)</f>
         <v>#REF!</v>
       </c>
-      <c r="H21" s="12" t="e">
+      <c r="H21" s="60" t="e">
         <f>+#REF!-G21</f>
         <v>#REF!</v>
       </c>
-      <c r="I21" s="13" t="e">
+      <c r="I21" s="65" t="e">
         <f>2*H21/(#REF!+#REF!-H21)</f>
         <v>#REF!</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="J21" s="62">
+        <f t="shared" si="0"/>
+        <v>296426266.95862639</v>
+      </c>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="28">
+      <c r="B22" s="58">
         <f>+'Activo-EEFF'!B22</f>
         <v>42156</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="59">
         <f>+'Activo-EEFF'!C22</f>
         <v>113176360000.00002</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="60">
         <f>+'Activo-EEFF'!E22</f>
         <v>8527948775.2419996</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="61">
         <v>225745366.82481855</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="61">
         <v>13986503.127785973</v>
       </c>
-      <c r="G22" s="12" t="e">
+      <c r="G22" s="60" t="e">
         <f>+#REF!+SUM(E11:E22)-SUM(F11:F22)</f>
         <v>#REF!</v>
       </c>
-      <c r="H22" s="12" t="e">
+      <c r="H22" s="60" t="e">
         <f>+#REF!-G22</f>
         <v>#REF!</v>
       </c>
-      <c r="I22" s="13" t="e">
+      <c r="I22" s="65" t="e">
         <f>2*H22/(#REF!+#REF!-H22)</f>
         <v>#REF!</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="J22" s="62">
+        <f t="shared" si="0"/>
+        <v>211758863.69703257</v>
+      </c>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="28">
+      <c r="B23" s="58">
         <f>+'Activo-EEFF'!B23</f>
         <v>42186</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="59">
         <f>+'Activo-EEFF'!C23</f>
         <v>114933137000.00002</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="60">
         <f>+'Activo-EEFF'!E23</f>
         <v>8575079026.9939995</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="61">
         <v>239447100.06413245</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="61">
         <v>14186121.828475693</v>
       </c>
-      <c r="G23" s="12" t="e">
+      <c r="G23" s="60" t="e">
         <f>+#REF!+SUM(E12:E23)-SUM(F12:F23)</f>
         <v>#REF!</v>
       </c>
-      <c r="H23" s="12" t="e">
+      <c r="H23" s="60" t="e">
         <f>+#REF!-G23</f>
         <v>#REF!</v>
       </c>
-      <c r="I23" s="13" t="e">
+      <c r="I23" s="65" t="e">
         <f>2*H23/(#REF!+#REF!-H23)</f>
         <v>#REF!</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="J23" s="62">
+        <f t="shared" si="0"/>
+        <v>225260978.23565677</v>
+      </c>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="28">
+      <c r="B24" s="58">
         <f>+'Activo-EEFF'!B24</f>
         <v>42217</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="59">
         <f>+'Activo-EEFF'!C24</f>
         <v>116676478000</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="60">
         <f>+'Activo-EEFF'!E24</f>
         <v>8487124140.1389999</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="61">
         <v>234903380.92745894</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="61">
         <v>15397235.672243116</v>
       </c>
-      <c r="G24" s="12" t="e">
+      <c r="G24" s="60" t="e">
         <f>+#REF!+SUM(E13:E24)-SUM(F13:F24)</f>
         <v>#REF!</v>
       </c>
-      <c r="H24" s="12" t="e">
+      <c r="H24" s="60" t="e">
         <f>+#REF!-G24</f>
         <v>#REF!</v>
       </c>
-      <c r="I24" s="13" t="e">
+      <c r="I24" s="65" t="e">
         <f>2*H24/(#REF!+#REF!-H24)</f>
         <v>#REF!</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="J24" s="62">
+        <f t="shared" si="0"/>
+        <v>219506145.25521582</v>
+      </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="28">
+      <c r="B25" s="58">
         <f>+'Activo-EEFF'!B25</f>
         <v>42248</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="59">
         <f>+'Activo-EEFF'!C25</f>
         <v>118270206627.20001</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="60">
         <f>+'Activo-EEFF'!E25</f>
         <v>8276905257.3249998</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="61">
         <v>229901467.61775571</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="61">
         <v>17446098.203332897</v>
       </c>
-      <c r="G25" s="12" t="e">
+      <c r="G25" s="60" t="e">
         <f>+#REF!+SUM(E14:E25)-SUM(F14:F25)</f>
         <v>#REF!</v>
       </c>
-      <c r="H25" s="12" t="e">
+      <c r="H25" s="60" t="e">
         <f>+#REF!-G25</f>
         <v>#REF!</v>
       </c>
-      <c r="I25" s="13" t="e">
+      <c r="I25" s="65" t="e">
         <f>2*H25/(#REF!+#REF!-H25)</f>
         <v>#REF!</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="J25" s="62">
+        <f t="shared" si="0"/>
+        <v>212455369.41442281</v>
+      </c>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="28">
+      <c r="B26" s="58">
         <f>+'Activo-EEFF'!B26</f>
         <v>42278</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="59">
         <f>+'Activo-EEFF'!C26</f>
         <v>119982718148.30002</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="60">
         <f>+'Activo-EEFF'!E26</f>
         <v>8083064725.7079992</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="61">
         <v>146567883.83586526</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="61">
         <v>16677687.482314881</v>
       </c>
-      <c r="G26" s="12" t="e">
+      <c r="G26" s="60" t="e">
         <f>+#REF!+SUM(E15:E26)-SUM(F15:F26)</f>
         <v>#REF!</v>
       </c>
-      <c r="H26" s="12" t="e">
+      <c r="H26" s="60" t="e">
         <f>+#REF!-G26</f>
         <v>#REF!</v>
       </c>
-      <c r="I26" s="13" t="e">
+      <c r="I26" s="65" t="e">
         <f>2*H26/(#REF!+#REF!-H26)</f>
         <v>#REF!</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="J26" s="62">
+        <f t="shared" si="0"/>
+        <v>129890196.35355037</v>
+      </c>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="28">
+      <c r="B27" s="58">
         <f>+'Activo-EEFF'!B27</f>
         <v>42309</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="59">
         <f>+'Activo-EEFF'!C27</f>
         <v>121722325460.59999</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="60">
         <f>+'Activo-EEFF'!E27</f>
         <v>8117561840.9419994</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="61">
         <v>348843433.83032817</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="61">
         <v>17741834.234468363</v>
       </c>
-      <c r="G27" s="12" t="e">
+      <c r="G27" s="60" t="e">
         <f>+#REF!+SUM(E16:E27)-SUM(F16:F27)</f>
         <v>#REF!</v>
       </c>
-      <c r="H27" s="12" t="e">
+      <c r="H27" s="60" t="e">
         <f>+#REF!-G27</f>
         <v>#REF!</v>
       </c>
-      <c r="I27" s="13" t="e">
+      <c r="I27" s="65" t="e">
         <f>2*H27/(#REF!+#REF!-H27)</f>
         <v>#REF!</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="J27" s="62">
+        <f t="shared" si="0"/>
+        <v>331101599.59585983</v>
+      </c>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="28">
+      <c r="B28" s="58">
         <f>+'Activo-EEFF'!B28</f>
         <v>42339</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="59">
         <f>+'Activo-EEFF'!C28</f>
         <v>123470831793.2</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="60">
         <f>+'Activo-EEFF'!E28</f>
         <v>7956603829.9419994</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="61">
         <v>228150207.98659074</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="61">
         <v>16741051.315854859</v>
       </c>
-      <c r="G28" s="12" t="e">
+      <c r="G28" s="60" t="e">
         <f>+#REF!+SUM(E17:E28)-SUM(F17:F28)</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="12" t="e">
+      <c r="H28" s="60" t="e">
         <f>+#REF!-G28</f>
         <v>#REF!</v>
       </c>
-      <c r="I28" s="13" t="e">
+      <c r="I28" s="65" t="e">
         <f>2*H28/(#REF!+#REF!-H28)</f>
         <v>#REF!</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="J28" s="62">
+        <f t="shared" si="0"/>
+        <v>211409156.6707359</v>
+      </c>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="28">
+      <c r="A29" s="66"/>
+      <c r="B29" s="58">
         <f>+'Activo-EEFF'!B29</f>
         <v>42370</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="59">
         <f>+'Activo-EEFF'!C29</f>
         <v>126054847738.60002</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="60">
         <f>+'Activo-EEFF'!E29</f>
         <v>7973467840.0419998</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="61">
         <v>312591259.05610043</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="61">
         <v>19763551.530064486</v>
       </c>
-      <c r="G29" s="12" t="e">
+      <c r="G29" s="60" t="e">
         <f>+#REF!+SUM(E18:E29)-SUM(F18:F29)</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="12" t="e">
+      <c r="H29" s="60" t="e">
         <f>+#REF!-G29</f>
         <v>#REF!</v>
       </c>
-      <c r="I29" s="13" t="e">
+      <c r="I29" s="65" t="e">
         <f>2*H29/(#REF!+#REF!-H29)</f>
         <v>#REF!</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="J29" s="62">
+        <f t="shared" si="0"/>
+        <v>292827707.52603596</v>
+      </c>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="28">
+      <c r="A30" s="67"/>
+      <c r="B30" s="58">
         <f>+'Activo-EEFF'!B30</f>
         <v>42401</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="59">
         <f>+'Activo-EEFF'!C30</f>
         <v>127755896815.7</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="60">
         <f>+'Activo-EEFF'!E30</f>
         <v>7915668426.4169998</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="61">
         <v>247616048.89867204</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="61">
         <v>19101670.794522766</v>
       </c>
-      <c r="G30" s="12" t="e">
+      <c r="G30" s="60" t="e">
         <f>+#REF!+SUM(E19:E30)-SUM(F19:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H30" s="12" t="e">
+      <c r="H30" s="60" t="e">
         <f>+#REF!-G30</f>
         <v>#REF!</v>
       </c>
-      <c r="I30" s="13" t="e">
+      <c r="I30" s="65" t="e">
         <f>2*H30/(#REF!+#REF!-H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="J30" s="62">
+        <f t="shared" si="0"/>
+        <v>228514378.10414928</v>
+      </c>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="28">
+      <c r="A31" s="67"/>
+      <c r="B31" s="58">
         <f>+'Activo-EEFF'!B31</f>
         <v>42430</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="59">
         <f>+'Activo-EEFF'!C31</f>
         <v>129922761238.10001</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="60">
         <f>+'Activo-EEFF'!E31</f>
         <v>7901170031.9849997</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="61">
         <v>339176211.97674471</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="61">
         <v>20102471.32045633</v>
       </c>
-      <c r="G31" s="12" t="e">
+      <c r="G31" s="60" t="e">
         <f>+#REF!+SUM(E20:E31)-SUM(F20:F31)</f>
         <v>#REF!</v>
       </c>
-      <c r="H31" s="12" t="e">
+      <c r="H31" s="60" t="e">
         <f>+#REF!-G31</f>
         <v>#REF!</v>
       </c>
-      <c r="I31" s="13" t="e">
+      <c r="I31" s="65" t="e">
         <f>2*H31/(#REF!+#REF!-H31)</f>
         <v>#REF!</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="J31" s="62">
+        <f t="shared" si="0"/>
+        <v>319073740.65628839</v>
+      </c>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="28">
+      <c r="B32" s="58">
         <f>+'Activo-EEFF'!B32</f>
         <v>42461</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="59">
         <f>+'Activo-EEFF'!C32</f>
         <v>132467462891.70001</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="60">
         <f>+'Activo-EEFF'!E32</f>
         <v>8499618704.5219994</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="61">
         <v>241123752.13945723</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="61">
         <v>19595985.147948202</v>
       </c>
-      <c r="G32" s="12" t="e">
+      <c r="G32" s="60" t="e">
         <f>+#REF!+SUM(E21:E32)-SUM(F21:F32)</f>
         <v>#REF!</v>
       </c>
-      <c r="H32" s="12" t="e">
+      <c r="H32" s="60" t="e">
         <f>+#REF!-G32</f>
         <v>#REF!</v>
       </c>
-      <c r="I32" s="13" t="e">
+      <c r="I32" s="65" t="e">
         <f>2*H32/(#REF!+#REF!-H32)</f>
         <v>#REF!</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="J32" s="62">
+        <f t="shared" si="0"/>
+        <v>221527766.99150902</v>
+      </c>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="28">
+      <c r="B33" s="58">
         <f>+'Activo-EEFF'!B33</f>
         <v>42491</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="59">
         <f>+'Activo-EEFF'!C33</f>
         <v>135007242630.09999</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="60">
         <f>+'Activo-EEFF'!E33</f>
         <v>9025406097.7889996</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="61">
         <v>253875748.10893467</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="61">
         <v>20072252.301495649</v>
       </c>
-      <c r="G33" s="12" t="e">
+      <c r="G33" s="60" t="e">
         <f>+#REF!+SUM(E22:E33)-SUM(F22:F33)</f>
         <v>#REF!</v>
       </c>
-      <c r="H33" s="12" t="e">
+      <c r="H33" s="60" t="e">
         <f>+#REF!-G33</f>
         <v>#REF!</v>
       </c>
-      <c r="I33" s="13" t="e">
+      <c r="I33" s="65" t="e">
         <f>2*H33/(#REF!+#REF!-H33)</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="J33" s="62">
+        <f t="shared" si="0"/>
+        <v>233803495.80743903</v>
+      </c>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="28">
+      <c r="B34" s="58">
         <f>+'Activo-EEFF'!B34</f>
         <v>42522</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="59">
         <f>+'Activo-EEFF'!C34</f>
         <v>137787185796.90002</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="60">
         <f>+'Activo-EEFF'!E34</f>
         <v>9770005186.9570007</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="61">
         <v>264962646.5962266</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="61">
         <v>20695015.235800236</v>
       </c>
-      <c r="G34" s="12" t="e">
+      <c r="G34" s="60" t="e">
         <f>+#REF!+SUM(E23:E34)-SUM(F23:F34)</f>
         <v>#REF!</v>
       </c>
-      <c r="H34" s="12" t="e">
+      <c r="H34" s="60" t="e">
         <f>+#REF!-G34</f>
         <v>#REF!</v>
       </c>
-      <c r="I34" s="13" t="e">
+      <c r="I34" s="65" t="e">
         <f>2*H34/(#REF!+#REF!-H34)</f>
         <v>#REF!</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="J34" s="62">
+        <f t="shared" si="0"/>
+        <v>244267631.36042637</v>
+      </c>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="28">
+      <c r="B35" s="58">
         <f>+'Activo-EEFF'!B35</f>
         <v>42552</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="59">
         <f>+'Activo-EEFF'!C35</f>
         <v>140549516661.80002</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="60">
         <f>+'Activo-EEFF'!E35</f>
         <v>10410813014.511002</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="61">
         <v>360009071.71932501</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="61">
         <v>20386954.475676958</v>
       </c>
-      <c r="G35" s="12" t="e">
+      <c r="G35" s="60" t="e">
         <f>+#REF!+SUM(E24:E35)-SUM(F24:F35)</f>
         <v>#REF!</v>
       </c>
-      <c r="H35" s="12" t="e">
+      <c r="H35" s="60" t="e">
         <f>+#REF!-G35</f>
         <v>#REF!</v>
       </c>
-      <c r="I35" s="13" t="e">
+      <c r="I35" s="65" t="e">
         <f>2*H35/(#REF!+#REF!-H35)</f>
         <v>#REF!</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="J35" s="62">
+        <f t="shared" si="0"/>
+        <v>339622117.24364805</v>
+      </c>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="28">
+      <c r="B36" s="58">
         <f>+'Activo-EEFF'!B36</f>
         <v>42583</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="59">
         <f>+'Activo-EEFF'!C36</f>
         <v>142676214234.10001</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="60">
         <f>+'Activo-EEFF'!E36</f>
         <v>10647619307.948002</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="61">
         <v>135119882.03046256</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F36" s="61">
         <v>21411840.780351669</v>
       </c>
-      <c r="G36" s="12" t="e">
+      <c r="G36" s="60" t="e">
         <f>+#REF!+SUM(E25:E36)-SUM(F25:F36)</f>
         <v>#REF!</v>
       </c>
-      <c r="H36" s="12" t="e">
+      <c r="H36" s="60" t="e">
         <f>+#REF!-G36</f>
         <v>#REF!</v>
       </c>
-      <c r="I36" s="13" t="e">
+      <c r="I36" s="65" t="e">
         <f>2*H36/(#REF!+#REF!-H36)</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="J36" s="62">
+        <f t="shared" si="0"/>
+        <v>113708041.25011089</v>
+      </c>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="28">
+      <c r="B37" s="58">
         <f>+'Activo-EEFF'!B37</f>
         <v>42614</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="59">
         <f>+'Activo-EEFF'!C37</f>
         <v>144765999348.40002</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="60">
         <f>+'Activo-EEFF'!E37</f>
         <v>10443920516.114002</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="61">
         <v>161429064.77086055</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F37" s="61">
         <v>20990801.95363126</v>
       </c>
-      <c r="G37" s="12" t="e">
+      <c r="G37" s="60" t="e">
         <f>+#REF!+SUM(E26:E37)-SUM(F26:F37)</f>
         <v>#REF!</v>
       </c>
-      <c r="H37" s="12" t="e">
+      <c r="H37" s="60" t="e">
         <f>+#REF!-G37</f>
         <v>#REF!</v>
       </c>
-      <c r="I37" s="13" t="e">
+      <c r="I37" s="65" t="e">
         <f>2*H37/(#REF!+#REF!-H37)</f>
         <v>#REF!</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="J37" s="62">
+        <f t="shared" si="0"/>
+        <v>140438262.8172293</v>
+      </c>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="28">
+      <c r="B38" s="58">
         <f>+'Activo-EEFF'!B38</f>
         <v>42644</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="59">
         <f>+'Activo-EEFF'!C38</f>
         <v>149495077084.09998</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="60">
         <f>+'Activo-EEFF'!E38</f>
         <v>13074981279.817001</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="61">
         <v>359545788.21944422</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="61">
         <v>22994154.354282975</v>
       </c>
-      <c r="G38" s="12" t="e">
+      <c r="G38" s="60" t="e">
         <f>+#REF!+SUM(E27:E38)-SUM(F27:F38)</f>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="12" t="e">
+      <c r="H38" s="60" t="e">
         <f>+#REF!-G38</f>
         <v>#REF!</v>
       </c>
-      <c r="I38" s="13" t="e">
+      <c r="I38" s="65" t="e">
         <f>2*H38/(#REF!+#REF!-H38)</f>
         <v>#REF!</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="J38" s="62">
+        <f t="shared" si="0"/>
+        <v>336551633.86516124</v>
+      </c>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="28">
+      <c r="B39" s="58">
         <f>+'Activo-EEFF'!B39</f>
         <v>42675</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="59">
         <f>+'Activo-EEFF'!C39</f>
         <v>151009970373.5</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="60">
         <f>+'Activo-EEFF'!E39</f>
         <v>12607985709.000002</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="61">
         <v>246253282.59895784</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="61">
         <v>22088611.541378409</v>
       </c>
-      <c r="G39" s="12" t="e">
+      <c r="G39" s="60" t="e">
         <f>+#REF!+SUM(E28:E39)-SUM(F28:F39)</f>
         <v>#REF!</v>
       </c>
-      <c r="H39" s="12" t="e">
+      <c r="H39" s="60" t="e">
         <f>+#REF!-G39</f>
         <v>#REF!</v>
       </c>
-      <c r="I39" s="13" t="e">
+      <c r="I39" s="65" t="e">
         <f>2*H39/(#REF!+#REF!-H39)</f>
         <v>#REF!</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="J39" s="62">
+        <f t="shared" si="0"/>
+        <v>224164671.05757943</v>
+      </c>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="28">
+      <c r="B40" s="58">
         <f>+'Activo-EEFF'!B40</f>
         <v>42705</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="59">
         <f>+'Activo-EEFF'!C40</f>
         <v>153812013184.90002</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="60">
         <f>+'Activo-EEFF'!E40</f>
         <v>13169204122.454002</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="61">
         <v>397601850.27947265</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="61">
         <v>21760356.786026195</v>
       </c>
-      <c r="G40" s="12" t="e">
+      <c r="G40" s="60" t="e">
         <f>+#REF!+SUM(E29:E40)-SUM(F29:F40)</f>
         <v>#REF!</v>
       </c>
-      <c r="H40" s="12" t="e">
+      <c r="H40" s="60" t="e">
         <f>+#REF!-G40</f>
         <v>#REF!</v>
       </c>
-      <c r="I40" s="13" t="e">
+      <c r="I40" s="65" t="e">
         <f>2*H40/(#REF!+#REF!-H40)</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="62">
+        <f t="shared" si="0"/>
+        <v>375841493.49344647</v>
+      </c>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="28">
+      <c r="B41" s="58">
         <f>+'Activo-EEFF'!B41</f>
         <v>42736</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="59">
         <f>+'Activo-EEFF'!C41</f>
         <v>157538035754.60001</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="60">
         <f>+'Activo-EEFF'!E41</f>
         <v>14000726593.554003</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="61">
         <v>233764231.01493049</v>
       </c>
-      <c r="F41" s="55">
+      <c r="F41" s="61">
         <v>23243498.977910966</v>
       </c>
-      <c r="G41" s="12" t="e">
+      <c r="G41" s="60" t="e">
         <f>+#REF!+SUM(E30:E41)-SUM(F30:F41)</f>
         <v>#REF!</v>
       </c>
-      <c r="H41" s="12" t="e">
+      <c r="H41" s="60" t="e">
         <f>+#REF!-G41</f>
         <v>#REF!</v>
       </c>
-      <c r="I41" s="13" t="e">
+      <c r="I41" s="65" t="e">
         <f>2*H41/(#REF!+#REF!-H41)</f>
         <v>#REF!</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="J41" s="62">
+        <f t="shared" si="0"/>
+        <v>210520732.03701952</v>
+      </c>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="28">
+      <c r="B42" s="58">
         <f>+'Activo-EEFF'!B42</f>
         <v>42767</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="59">
         <f>+'Activo-EEFF'!C42</f>
         <v>159617705946.39999</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="60">
         <f>+'Activo-EEFF'!E42</f>
         <v>13844254526.754002</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="61">
         <v>284270133.67666018</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="61">
         <v>24589378.046618961</v>
       </c>
-      <c r="G42" s="12" t="e">
+      <c r="G42" s="60" t="e">
         <f>+#REF!+SUM(E31:E42)-SUM(F31:F42)</f>
         <v>#REF!</v>
       </c>
-      <c r="H42" s="12" t="e">
+      <c r="H42" s="60" t="e">
         <f>+#REF!-G42</f>
         <v>#REF!</v>
       </c>
-      <c r="I42" s="13" t="e">
+      <c r="I42" s="65" t="e">
         <f>2*H42/(#REF!+#REF!-H42)</f>
         <v>#REF!</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="J42" s="62">
+        <f t="shared" si="0"/>
+        <v>259680755.63004121</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="28">
+      <c r="B43" s="58">
         <f>+'Activo-EEFF'!B43</f>
         <v>42795</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="59">
         <f>+'Activo-EEFF'!C43</f>
         <v>162740312734.10001</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="60">
         <f>+'Activo-EEFF'!E43</f>
         <v>14253180437.716002</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="61">
         <v>354190654.56342983</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="61">
         <v>25248305.492234908</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="13"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="62">
+        <f t="shared" si="0"/>
+        <v>328942349.07119495</v>
+      </c>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="28">
+      <c r="B44" s="58">
         <f>+'Activo-EEFF'!B44</f>
         <v>42826</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="59">
         <f>+'Activo-EEFF'!C44</f>
         <v>165539604974.60001</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="60">
         <f>+'Activo-EEFF'!E44</f>
         <v>14897653731.137001</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="61">
         <v>268276123.94463986</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="61">
         <v>26133908.241029609</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="13"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="62">
+        <f t="shared" si="0"/>
+        <v>242142215.70361024</v>
+      </c>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="28">
+      <c r="B45" s="58">
         <f>+'Activo-EEFF'!B45</f>
         <v>42856</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="59">
         <f>+'Activo-EEFF'!C45</f>
         <v>167539926983.50003</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="60">
         <f>+'Activo-EEFF'!E45</f>
         <v>14585088839.837002</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="61">
         <v>279659834.31794435</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="61">
         <v>25731942.607686676</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="62">
+        <f t="shared" si="0"/>
+        <v>253927891.71025768</v>
+      </c>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="28">
+      <c r="B46" s="58">
         <f>+'Activo-EEFF'!B46</f>
         <v>42887</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="59">
         <f>+'Activo-EEFF'!C46</f>
         <v>169762690151.40002</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="60">
         <f>+'Activo-EEFF'!E46</f>
         <v>14391427689.337002</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="61">
         <v>269813161.18244141</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="61">
         <v>26184443.453756619</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="62">
+        <f t="shared" si="0"/>
+        <v>243628717.72868478</v>
+      </c>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="28">
+      <c r="B47" s="58">
         <f>+'Activo-EEFF'!B47</f>
         <v>42917</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="59">
         <f>+'Activo-EEFF'!C47</f>
         <v>172003903603.40002</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="60">
         <f>+'Activo-EEFF'!E47</f>
         <v>14267707945.137001</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="61">
         <v>271346674.6346336</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="61">
         <v>27564385.179275699</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="62">
+        <f t="shared" si="0"/>
+        <v>243782289.45535791</v>
+      </c>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="28">
+      <c r="B48" s="58">
         <f>+'Activo-EEFF'!B48</f>
         <v>42948</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="59">
         <f>+'Activo-EEFF'!C48</f>
         <v>174355100536.79999</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="60">
         <f>+'Activo-EEFF'!E48</f>
         <v>14249500863.237001</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="61">
         <v>276289629.17321962</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="61">
         <v>27295804.905305412</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="13"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="62">
+        <f t="shared" si="0"/>
+        <v>248993824.26791421</v>
+      </c>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="28">
+      <c r="B49" s="58">
         <f>+'Activo-EEFF'!B49</f>
         <v>42979</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="59">
         <f>+'Activo-EEFF'!C49</f>
         <v>176856878481.29999</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="60">
         <f>+'Activo-EEFF'!E49</f>
         <v>14028905900.637001</v>
       </c>
-      <c r="E49" s="55">
+      <c r="E49" s="61">
         <v>290780852.6995312</v>
       </c>
-      <c r="F49" s="55">
+      <c r="F49" s="61">
         <v>28086765.854283288</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="13"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="62">
+        <f t="shared" si="0"/>
+        <v>262694086.84524792</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="28">
+      <c r="B50" s="58">
         <f>+'Activo-EEFF'!B50</f>
         <v>43009</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="59">
         <f>+'Activo-EEFF'!C50</f>
         <v>179179915887</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="60">
         <f>+'Activo-EEFF'!E50</f>
         <v>13973534858.279001</v>
       </c>
-      <c r="E50" s="55">
+      <c r="E50" s="61">
         <v>270884080.5351997</v>
       </c>
-      <c r="F50" s="55">
+      <c r="F50" s="61">
         <v>29628712.79423089</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="62">
+        <f t="shared" si="0"/>
+        <v>241255367.74096882</v>
+      </c>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="28">
+      <c r="B51" s="58">
         <f>+'Activo-EEFF'!B51</f>
         <v>43040</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="59">
         <f>+'Activo-EEFF'!C51</f>
         <v>181434008493.30002</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="60">
         <f>+'Activo-EEFF'!E51</f>
         <v>13864394945.189001</v>
       </c>
-      <c r="E51" s="55">
+      <c r="E51" s="61">
         <v>177458326.24751586</v>
       </c>
-      <c r="F51" s="55">
+      <c r="F51" s="61">
         <v>29882829.084278978</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="13"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="62">
+        <f t="shared" si="0"/>
+        <v>147575497.16323689</v>
+      </c>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="28">
+      <c r="B52" s="58">
         <f>+'Activo-EEFF'!B52</f>
         <v>43070</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="59">
         <f>+'Activo-EEFF'!C52</f>
         <v>183444137905.40002</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="60">
         <f>+'Activo-EEFF'!E52</f>
         <v>13394884003.489</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E52" s="61">
         <v>512454014.10679549</v>
       </c>
-      <c r="F52" s="55">
+      <c r="F52" s="61">
         <v>29164004.448952053</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="13"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="62">
+        <f t="shared" si="0"/>
+        <v>483290009.65784341</v>
+      </c>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="28">
+      <c r="B53" s="58">
         <f>+'Activo-EEFF'!B53</f>
         <v>43101</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="59">
         <f>+'Activo-EEFF'!C53</f>
         <v>186802537661.60001</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="60">
         <f>+'Activo-EEFF'!E53</f>
         <v>13384913999.834</v>
       </c>
-      <c r="E53" s="55">
+      <c r="E53" s="61">
         <v>302705020.04587227</v>
       </c>
-      <c r="F53" s="55">
+      <c r="F53" s="61">
         <v>29559840.203069322</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="13"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="62">
+        <f t="shared" si="0"/>
+        <v>273145179.84280294</v>
+      </c>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="28">
+      <c r="B54" s="58">
         <f>+'Activo-EEFF'!B54</f>
         <v>43132</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="59">
         <f>+'Activo-EEFF'!C54</f>
         <v>189178383723.40002</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="60">
         <f>+'Activo-EEFF'!E54</f>
         <v>13215689502.534</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="61">
         <v>288588159.05370331</v>
       </c>
-      <c r="F54" s="55">
+      <c r="F54" s="61">
         <v>31259233.546819471</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="62">
+        <f t="shared" si="0"/>
+        <v>257328925.50688383</v>
+      </c>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="28">
+      <c r="B55" s="58">
         <f>+'Activo-EEFF'!B55</f>
         <v>43160</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="59">
         <f>+'Activo-EEFF'!C55</f>
         <v>192179724657.20001</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="60">
         <f>+'Activo-EEFF'!E55</f>
         <v>13299195075.415001</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="61">
         <v>422481658.0291822</v>
       </c>
-      <c r="F55" s="55">
+      <c r="F55" s="61">
         <v>34133173.887570545</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="13"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="62">
+        <f t="shared" si="0"/>
+        <v>388348484.14161164</v>
+      </c>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="28">
+      <c r="B56" s="58">
         <f>+'Activo-EEFF'!B56</f>
         <v>43191</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="59">
         <f>+'Activo-EEFF'!C56</f>
         <v>194655781192.70004</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="60">
         <f>+'Activo-EEFF'!E56</f>
         <v>13086275379.815001</v>
       </c>
-      <c r="E56" s="55">
+      <c r="E56" s="61">
         <v>290273637.93002838</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F56" s="61">
         <v>33062348.522277884</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="62">
+        <f t="shared" si="0"/>
+        <v>257211289.40775049</v>
+      </c>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="28">
+      <c r="B57" s="58">
         <f>+'Activo-EEFF'!B57</f>
         <v>43221</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="59">
         <f>+'Activo-EEFF'!C57</f>
         <v>197261046824.89999</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="60">
         <f>+'Activo-EEFF'!E57</f>
         <v>12994047009.015001</v>
       </c>
-      <c r="E57" s="55">
+      <c r="E57" s="61">
         <v>318508417.91524023</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="61">
         <v>34241285.434990734</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="62">
+        <f t="shared" si="0"/>
+        <v>284267132.48024952</v>
+      </c>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="28">
+      <c r="B58" s="58">
         <f>+'Activo-EEFF'!B58</f>
         <v>43252</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="59">
         <f>+'Activo-EEFF'!C58</f>
         <v>199743401225.60001</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="60">
         <f>+'Activo-EEFF'!E58</f>
         <v>12678403770.915001</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="61">
         <v>303470940.55514389</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="61">
         <v>34845594.630040437</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="13"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="62">
+        <f t="shared" si="0"/>
+        <v>268625345.92510343</v>
+      </c>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="28">
+      <c r="B59" s="58">
         <f>+'Activo-EEFF'!B59</f>
         <v>43282</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="59">
         <f>+'Activo-EEFF'!C59</f>
         <v>201086538569.39999</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="60">
         <f>+'Activo-EEFF'!E59</f>
         <v>11332307883.315001</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="61">
         <v>183424864.13778132</v>
       </c>
-      <c r="F59" s="55">
+      <c r="F59" s="61">
         <v>33924864.207423605</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="13"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="62">
+        <f t="shared" si="0"/>
+        <v>149499999.93035772</v>
+      </c>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="28">
+      <c r="B60" s="58">
         <f>+'Activo-EEFF'!B60</f>
         <v>43313</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="59">
         <f>+'Activo-EEFF'!C60</f>
         <v>202010982281.30002</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="60">
         <f>+'Activo-EEFF'!E60</f>
         <v>9596112044.7150002</v>
       </c>
-      <c r="E60" s="55">
+      <c r="E60" s="61">
         <v>443440697.75047708</v>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="61">
         <v>35358622.098037437</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="13"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="62">
+        <f t="shared" si="0"/>
+        <v>408082075.65243965</v>
+      </c>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="28">
+      <c r="B61" s="58">
         <f>+'Activo-EEFF'!B61</f>
         <v>43344</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="59">
         <f>+'Activo-EEFF'!C61</f>
         <v>203225392952.30002</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="60">
         <f>+'Activo-EEFF'!E61</f>
         <v>7982200188.5150003</v>
       </c>
-      <c r="E61" s="55">
+      <c r="E61" s="61">
         <v>306632299.42793864</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F61" s="61">
         <v>35637154.31364762</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="13"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="62">
+        <f t="shared" si="0"/>
+        <v>270995145.11429101</v>
+      </c>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B62" s="28">
+      <c r="B62" s="58">
         <f>+'Activo-EEFF'!B62</f>
         <v>43374</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="59">
         <f>+'Activo-EEFF'!C62</f>
         <v>205993481613.80002</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="60">
         <f>+'Activo-EEFF'!E62</f>
         <v>7759624488.0150003</v>
       </c>
-      <c r="E62" s="55">
+      <c r="E62" s="61">
         <v>214843247.38665026</v>
       </c>
-      <c r="F62" s="55">
+      <c r="F62" s="61">
         <v>36890079.433805697</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="13"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="62">
+        <f t="shared" si="0"/>
+        <v>177953167.95284456</v>
+      </c>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="28">
+      <c r="B63" s="58">
         <f>+'Activo-EEFF'!B63</f>
         <v>43405</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="59">
         <f>+'Activo-EEFF'!C63</f>
         <v>208462967698.40002</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="60">
         <f>+'Activo-EEFF'!E63</f>
         <v>7515451556.1150007</v>
       </c>
-      <c r="E63" s="55">
+      <c r="E63" s="61">
         <v>324133666.98785037</v>
       </c>
-      <c r="F63" s="55">
+      <c r="F63" s="61">
         <v>37747346.528279141</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="13"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="62">
+        <f t="shared" si="0"/>
+        <v>286386320.45957124</v>
+      </c>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="28">
+      <c r="B64" s="58">
         <f>+'Activo-EEFF'!B64</f>
         <v>43435</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="59">
         <f>+'Activo-EEFF'!C64</f>
         <v>211359494880.20001</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="60">
         <f>+'Activo-EEFF'!E64</f>
         <v>7470506254.6150007</v>
       </c>
-      <c r="E64" s="55">
+      <c r="E64" s="61">
         <v>487463439.28702569</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F64" s="61">
         <v>36378808.581170917</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="13"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="62">
+        <f t="shared" si="0"/>
+        <v>451084630.70585477</v>
+      </c>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="28">
+      <c r="B65" s="58">
         <f>+'Activo-EEFF'!B65</f>
         <v>43466</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="59">
         <f>+'Activo-EEFF'!C65</f>
         <v>215357428808.70004</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="60">
         <f>+'Activo-EEFF'!E65</f>
         <v>7670069445.6150007</v>
       </c>
-      <c r="E65" s="55">
+      <c r="E65" s="61">
         <v>275017578.99381667</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="61">
         <v>37777881.424766548</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="13"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="62">
+        <f t="shared" si="0"/>
+        <v>237239697.56905013</v>
+      </c>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="28">
+      <c r="B66" s="58">
         <f>+'Activo-EEFF'!B66</f>
         <v>43497</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="59">
         <f>+'Activo-EEFF'!C66</f>
         <v>218032706491.40002</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="60">
         <f>+'Activo-EEFF'!E66</f>
         <v>7403229312.4150009</v>
       </c>
-      <c r="E66" s="55">
+      <c r="E66" s="61">
         <v>465653014.01625156</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="61">
         <v>42876573.30551175</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="13"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="62">
+        <f t="shared" si="0"/>
+        <v>422776440.71073979</v>
+      </c>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="28">
+      <c r="B67" s="58">
         <f>+'Activo-EEFF'!B67</f>
         <v>43525</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="59">
         <f>+'Activo-EEFF'!C67</f>
         <v>220996331963</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="60">
         <f>+'Activo-EEFF'!E67</f>
         <v>7171770062.9150009</v>
       </c>
-      <c r="E67" s="55">
+      <c r="E67" s="61">
         <v>196894510.1941109</v>
       </c>
-      <c r="F67" s="55">
+      <c r="F67" s="61">
         <v>42866076.975516833</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="13"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="62">
+        <f t="shared" si="0"/>
+        <v>154028433.21859407</v>
+      </c>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="28">
+      <c r="B68" s="58">
         <f>+'Activo-EEFF'!B68</f>
         <v>43556</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="59">
         <f>+'Activo-EEFF'!C68</f>
         <v>223919422868.79999</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="60">
         <f>+'Activo-EEFF'!E68</f>
         <v>7059882310.1150007</v>
       </c>
-      <c r="E68" s="55">
+      <c r="E68" s="61">
         <v>438447597.51802826</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="61">
         <v>42625279.532872967</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="13"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="62">
+        <f t="shared" si="0"/>
+        <v>395822317.98515528</v>
+      </c>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="28">
+      <c r="B69" s="58">
         <f>+'Activo-EEFF'!B69</f>
         <v>43586</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="59">
         <f>+'Activo-EEFF'!C69</f>
         <v>226882501100.39999</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="60">
         <f>+'Activo-EEFF'!E69</f>
         <v>6923446157.1980009</v>
       </c>
-      <c r="E69" s="55">
+      <c r="E69" s="61">
         <v>453940249.53676397</v>
       </c>
-      <c r="F69" s="55">
+      <c r="F69" s="61">
         <v>43891442.75772731</v>
       </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="13"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="62">
+        <f t="shared" ref="J69:J124" si="1">E69-F69</f>
+        <v>410048806.77903664</v>
+      </c>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="28">
+      <c r="B70" s="58">
         <f>+'Activo-EEFF'!B70</f>
         <v>43617</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="59">
         <f>+'Activo-EEFF'!C70</f>
         <v>229887650031.20004</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="60">
         <f>+'Activo-EEFF'!E70</f>
         <v>6950298266.1980009</v>
       </c>
-      <c r="E70" s="55">
+      <c r="E70" s="61">
         <v>318710569.73390836</v>
       </c>
-      <c r="F70" s="55">
+      <c r="F70" s="61">
         <v>44208234.949432679</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="13"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="62">
+        <f t="shared" si="1"/>
+        <v>274502334.78447568</v>
+      </c>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="28">
+      <c r="B71" s="58">
         <f>+'Activo-EEFF'!B71</f>
         <v>43647</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="59">
         <f>+'Activo-EEFF'!C71</f>
         <v>232695878545.10001</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="60">
         <f>+'Activo-EEFF'!E71</f>
         <v>6614251714.2980013</v>
       </c>
-      <c r="E71" s="55">
+      <c r="E71" s="61">
         <v>189782761.33440006</v>
       </c>
-      <c r="F71" s="55">
+      <c r="F71" s="61">
         <v>46073771.239308268</v>
       </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="13"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="62">
+        <f t="shared" si="1"/>
+        <v>143708990.09509179</v>
+      </c>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="28">
+      <c r="B72" s="58">
         <f>+'Activo-EEFF'!B72</f>
         <v>43678</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="59">
         <f>+'Activo-EEFF'!C72</f>
         <v>234314162172.40005</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="60">
         <f>+'Activo-EEFF'!E72</f>
         <v>5453763651.7980013</v>
       </c>
-      <c r="E72" s="55">
+      <c r="E72" s="61">
         <v>265192112.96617529</v>
       </c>
-      <c r="F72" s="55">
+      <c r="F72" s="61">
         <v>46129587.393229678</v>
       </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="13"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="62">
+        <f t="shared" si="1"/>
+        <v>219062525.57294559</v>
+      </c>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="28">
+      <c r="B73" s="58">
         <f>+'Activo-EEFF'!B73</f>
         <v>43709</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="59">
         <f>+'Activo-EEFF'!C73</f>
         <v>238050907717.70004</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="60">
         <f>+'Activo-EEFF'!E73</f>
         <v>4967621452.2980013</v>
       </c>
-      <c r="E73" s="55">
+      <c r="E73" s="61">
         <v>373850248.62227857</v>
       </c>
-      <c r="F73" s="55">
+      <c r="F73" s="61">
         <v>47250396.67103716</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="13"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="62">
+        <f t="shared" si="1"/>
+        <v>326599851.95124143</v>
+      </c>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="28">
+      <c r="B74" s="58">
         <f>+'Activo-EEFF'!B74</f>
         <v>43739</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="59">
         <f>+'Activo-EEFF'!C74</f>
         <v>240690641893.70001</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="60">
         <f>+'Activo-EEFF'!E74</f>
         <v>3949193955.6980009</v>
       </c>
-      <c r="E74" s="55">
+      <c r="E74" s="61">
         <v>266556703.24158141</v>
       </c>
-      <c r="F74" s="55">
+      <c r="F74" s="61">
         <v>47421368.204577081</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="13"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="62">
+        <f t="shared" si="1"/>
+        <v>219135335.03700432</v>
+      </c>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="28">
+      <c r="B75" s="58">
         <f>+'Activo-EEFF'!B75</f>
         <v>43770</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="59">
         <f>+'Activo-EEFF'!C75</f>
         <v>239442911094.80002</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="60">
         <f>+'Activo-EEFF'!E75</f>
         <v>-490303473.31599998</v>
       </c>
-      <c r="E75" s="55">
+      <c r="E75" s="61">
         <v>301599095.20890379</v>
       </c>
-      <c r="F75" s="55">
+      <c r="F75" s="61">
         <v>48240286.895897932</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="13"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="62">
+        <f t="shared" si="1"/>
+        <v>253358808.31300586</v>
+      </c>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="28">
+      <c r="B76" s="58">
         <f>+'Activo-EEFF'!B76</f>
         <v>43800</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="59">
         <f>+'Activo-EEFF'!C76</f>
         <v>241632241316.39999</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="60">
         <f>+'Activo-EEFF'!E76</f>
         <v>-1886415404.1159999</v>
       </c>
-      <c r="E76" s="55">
+      <c r="E76" s="61">
         <v>381638241.19437516</v>
       </c>
-      <c r="F76" s="55">
+      <c r="F76" s="61">
         <v>48833678.616947412</v>
       </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="13"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="62">
+        <f t="shared" si="1"/>
+        <v>332804562.57742774</v>
+      </c>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B77" s="28">
+      <c r="B77" s="58">
         <f>+'Activo-EEFF'!B77</f>
         <v>43831</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="59">
         <f>+'Activo-EEFF'!C77</f>
         <v>246379618410.40002</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="60">
         <f>+'Activo-EEFF'!E77</f>
         <v>-2129316129.516</v>
       </c>
-      <c r="E77" s="55">
+      <c r="E77" s="61">
         <v>433210702.26517665</v>
       </c>
-      <c r="F77" s="55">
+      <c r="F77" s="61">
         <v>49567049.221476875</v>
       </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="13"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="62">
+        <f t="shared" si="1"/>
+        <v>383643653.0436998</v>
+      </c>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="28">
+      <c r="B78" s="58">
         <f>+'Activo-EEFF'!B78</f>
         <v>43862</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="59">
         <f>+'Activo-EEFF'!C78</f>
         <v>249310079958.90002</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="60">
         <f>+'Activo-EEFF'!E78</f>
         <v>-2503208088.8850002</v>
       </c>
-      <c r="E78" s="55">
+      <c r="E78" s="61">
         <v>390952629.92057967</v>
       </c>
-      <c r="F78" s="55">
+      <c r="F78" s="61">
         <v>54719978.814028621</v>
       </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="13"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="62">
+        <f t="shared" si="1"/>
+        <v>336232651.10655105</v>
+      </c>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="28">
+      <c r="B79" s="58">
         <f>+'Activo-EEFF'!B79</f>
         <v>43891</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="59">
         <f>+'Activo-EEFF'!C79</f>
         <v>252275516626.39999</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="60">
         <f>+'Activo-EEFF'!E79</f>
         <v>-2877811538.3850002</v>
       </c>
-      <c r="E79" s="55">
+      <c r="E79" s="61">
         <v>677849410.98094761</v>
       </c>
-      <c r="F79" s="55">
+      <c r="F79" s="61">
         <v>57046736.088923298</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="13"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="62">
+        <f t="shared" si="1"/>
+        <v>620802674.89202428</v>
+      </c>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="28">
+      <c r="B80" s="58">
         <f>+'Activo-EEFF'!B80</f>
         <v>43922</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="59">
         <f>+'Activo-EEFF'!C80</f>
         <v>259694150299.60001</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="60">
         <f>+'Activo-EEFF'!E80</f>
         <v>1178959654.7220001</v>
       </c>
-      <c r="E80" s="55">
+      <c r="E80" s="61">
         <v>341796444.08186352</v>
       </c>
-      <c r="F80" s="55">
+      <c r="F80" s="61">
         <v>57731853.694267787</v>
       </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="13"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="62">
+        <f t="shared" si="1"/>
+        <v>284064590.38759571</v>
+      </c>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="28">
+      <c r="B81" s="58">
         <f>+'Activo-EEFF'!B81</f>
         <v>43952</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="59">
         <f>+'Activo-EEFF'!C81</f>
         <v>262434038917.80002</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="60">
         <f>+'Activo-EEFF'!E81</f>
         <v>850846356.03300011</v>
       </c>
-      <c r="E81" s="55">
+      <c r="E81" s="61">
         <v>351234472.81562114</v>
       </c>
-      <c r="F81" s="55">
+      <c r="F81" s="61">
         <v>60814330.880830996</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="13"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="62">
+        <f t="shared" si="1"/>
+        <v>290420141.93479013</v>
+      </c>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="28">
+      <c r="B82" s="58">
         <f>+'Activo-EEFF'!B82</f>
         <v>43983</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="59">
         <f>+'Activo-EEFF'!C82</f>
         <v>267075879657.10001</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="60">
         <f>+'Activo-EEFF'!E82</f>
         <v>2338846144.6330004</v>
       </c>
-      <c r="E82" s="55">
+      <c r="E82" s="61">
         <v>357950745.52986157</v>
       </c>
-      <c r="F82" s="55">
+      <c r="F82" s="61">
         <v>61629666.170920521</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="13"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="62">
+        <f t="shared" si="1"/>
+        <v>296321079.35894108</v>
+      </c>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="28">
+      <c r="B83" s="58">
         <f>+'Activo-EEFF'!B83</f>
         <v>44013</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="59">
         <f>+'Activo-EEFF'!C83</f>
         <v>272677541377.19998</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="60">
         <f>+'Activo-EEFF'!E83</f>
         <v>4717754773.5330009</v>
       </c>
-      <c r="E83" s="55">
+      <c r="E83" s="61">
         <v>357000550.04104972</v>
       </c>
-      <c r="F83" s="55">
+      <c r="F83" s="61">
         <v>64081571.312601954</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="13"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="62">
+        <f t="shared" si="1"/>
+        <v>292918978.72844779</v>
+      </c>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="28">
+      <c r="B84" s="58">
         <f>+'Activo-EEFF'!B84</f>
         <v>44044</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="59">
         <f>+'Activo-EEFF'!C84</f>
         <v>276873705642.40002</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="60">
         <f>+'Activo-EEFF'!E84</f>
         <v>5203292557.4330006</v>
       </c>
-      <c r="E84" s="55">
+      <c r="E84" s="61">
         <v>359336454.52772617</v>
       </c>
-      <c r="F84" s="55">
+      <c r="F84" s="61">
         <v>64092457.181010842</v>
       </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="13"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="62">
+        <f t="shared" si="1"/>
+        <v>295243997.34671533</v>
+      </c>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="28">
+      <c r="B85" s="58">
         <f>+'Activo-EEFF'!B85</f>
         <v>44075</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="59">
         <f>+'Activo-EEFF'!C85</f>
         <v>281640551400.40002</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="60">
         <f>+'Activo-EEFF'!E85</f>
         <v>5524397911.8150005</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E85" s="61">
         <v>360113998.6727677</v>
       </c>
-      <c r="F85" s="55">
+      <c r="F85" s="61">
         <v>64815188.594169512</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="13"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="62">
+        <f t="shared" si="1"/>
+        <v>295298810.0785982</v>
+      </c>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B86" s="28">
+      <c r="B86" s="58">
         <f>+'Activo-EEFF'!B86</f>
         <v>44105</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="59">
         <f>+'Activo-EEFF'!C86</f>
         <v>288183535326.20001</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="60">
         <f>+'Activo-EEFF'!E86</f>
         <v>7917909314.9770012</v>
       </c>
-      <c r="E86" s="55">
+      <c r="E86" s="61">
         <v>411893780.36052859</v>
       </c>
-      <c r="F86" s="55">
+      <c r="F86" s="61">
         <v>68213099.947204873</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="13"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="62">
+        <f t="shared" si="1"/>
+        <v>343680680.4133237</v>
+      </c>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="28">
+      <c r="B87" s="58">
         <f>+'Activo-EEFF'!B87</f>
         <v>44136</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="59">
         <f>+'Activo-EEFF'!C87</f>
         <v>294106103892.40002</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="60">
         <f>+'Activo-EEFF'!E87</f>
         <v>11447603398.578001</v>
       </c>
-      <c r="E87" s="55">
+      <c r="E87" s="61">
         <v>361387639.83265311</v>
       </c>
-      <c r="F87" s="55">
+      <c r="F87" s="61">
         <v>67541435.657343119</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="13"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="62">
+        <f t="shared" si="1"/>
+        <v>293846204.17531002</v>
+      </c>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B88" s="28">
+      <c r="B88" s="58">
         <f>+'Activo-EEFF'!B88</f>
         <v>44166</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="59">
         <f>+'Activo-EEFF'!C88</f>
         <v>298825003232.59998</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="60">
         <f>+'Activo-EEFF'!E88</f>
         <v>11927040527.542002</v>
       </c>
-      <c r="E88" s="55">
+      <c r="E88" s="61">
         <v>398340195.75448495</v>
       </c>
-      <c r="F88" s="55">
+      <c r="F88" s="61">
         <v>69889805.959713548</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="13"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="62">
+        <f t="shared" si="1"/>
+        <v>328450389.79477143</v>
+      </c>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B89" s="28">
+      <c r="B89" s="58">
         <f>+'Activo-EEFF'!B89</f>
         <v>44197</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="59">
         <f>+'Activo-EEFF'!C89</f>
         <v>306557796411.10004</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="60">
         <f>+'Activo-EEFF'!E89</f>
         <v>14977149673.094002</v>
       </c>
-      <c r="E89" s="55">
+      <c r="E89" s="61">
         <v>510716136.6247828</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F89" s="61">
         <v>69514931.048688769</v>
       </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="13"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="62">
+        <f t="shared" si="1"/>
+        <v>441201205.57609403</v>
+      </c>
+      <c r="K89" s="64"/>
+      <c r="L89" s="64"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B90" s="28">
+      <c r="B90" s="58">
         <f>+'Activo-EEFF'!B90</f>
         <v>44228</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="59">
         <f>+'Activo-EEFF'!C90</f>
         <v>310145608785</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="60">
         <f>+'Activo-EEFF'!E90</f>
         <v>14983506090.506002</v>
       </c>
-      <c r="E90" s="55">
+      <c r="E90" s="61">
         <v>385207180.92981666</v>
       </c>
-      <c r="F90" s="55">
+      <c r="F90" s="61">
         <v>78106304.584026664</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="13"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="62">
+        <f t="shared" si="1"/>
+        <v>307100876.34579003</v>
+      </c>
+      <c r="K90" s="64"/>
+      <c r="L90" s="64"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B91" s="28">
+      <c r="B91" s="58">
         <f>+'Activo-EEFF'!B91</f>
         <v>44256</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="59">
         <f>+'Activo-EEFF'!C91</f>
         <v>313404953942.40002</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="60">
         <f>+'Activo-EEFF'!E91</f>
         <v>13660137242.526003</v>
       </c>
-      <c r="E91" s="55">
+      <c r="E91" s="61">
         <v>507180700.02677155</v>
       </c>
-      <c r="F91" s="55">
+      <c r="F91" s="61">
         <v>79731654.91775842</v>
       </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="13"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="62">
+        <f t="shared" si="1"/>
+        <v>427449045.10901314</v>
+      </c>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B92" s="28">
+      <c r="B92" s="58">
         <f>+'Activo-EEFF'!B92</f>
         <v>44287</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="59">
         <f>+'Activo-EEFF'!C92</f>
         <v>313055949508.90002</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="60">
         <f>+'Activo-EEFF'!E92</f>
         <v>11384628551.154003</v>
       </c>
-      <c r="E92" s="55">
+      <c r="E92" s="61">
         <v>377446511.89909911</v>
       </c>
-      <c r="F92" s="55">
+      <c r="F92" s="61">
         <v>79087812.612886757</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="13"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="62">
+        <f t="shared" si="1"/>
+        <v>298358699.28621233</v>
+      </c>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="28">
+      <c r="B93" s="58">
         <f>+'Activo-EEFF'!B93</f>
         <v>44317</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="59">
         <f>+'Activo-EEFF'!C93</f>
         <v>315881632043.40002</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="60">
         <f>+'Activo-EEFF'!E93</f>
         <v>9558270909.8180027</v>
       </c>
-      <c r="E93" s="55">
+      <c r="E93" s="61">
         <v>379548565.73816222</v>
       </c>
-      <c r="F93" s="55">
+      <c r="F93" s="61">
         <v>82234635.987162396</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="13"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="62">
+        <f t="shared" si="1"/>
+        <v>297313929.75099981</v>
+      </c>
+      <c r="K93" s="64"/>
+      <c r="L93" s="64"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B94" s="28">
+      <c r="B94" s="58">
         <f>+'Activo-EEFF'!B94</f>
         <v>44348</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="59">
         <f>+'Activo-EEFF'!C94</f>
         <v>318457388335.5</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="60">
         <f>+'Activo-EEFF'!E94</f>
         <v>8364922295.7180023</v>
       </c>
-      <c r="E94" s="55">
+      <c r="E94" s="61">
         <v>382292624.57497245</v>
       </c>
-      <c r="F94" s="55">
+      <c r="F94" s="61">
         <v>83210505.968090072</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="13"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="62">
+        <f t="shared" si="1"/>
+        <v>299082118.60688239</v>
+      </c>
+      <c r="K94" s="64"/>
+      <c r="L94" s="64"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="28">
+      <c r="B95" s="58">
         <f>+'Activo-EEFF'!B95</f>
         <v>44378</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="59">
         <f>+'Activo-EEFF'!C95</f>
         <v>317432067058.60004</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="60">
         <f>+'Activo-EEFF'!E95</f>
         <v>3871574693.3180017</v>
       </c>
-      <c r="E95" s="55">
+      <c r="E95" s="61">
         <v>363868428.36549455</v>
       </c>
-      <c r="F95" s="55">
+      <c r="F95" s="61">
         <v>83210505.968090072</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="13"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="62">
+        <f t="shared" si="1"/>
+        <v>280657922.39740449</v>
+      </c>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="28">
+      <c r="B96" s="58">
         <f>+'Activo-EEFF'!B96</f>
         <v>44409</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="59">
         <f>+'Activo-EEFF'!C96</f>
         <v>321557217920.90002</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="60">
         <f>+'Activo-EEFF'!E96</f>
         <v>3800175781.8200016</v>
       </c>
-      <c r="E96" s="55">
+      <c r="E96" s="61">
         <v>368241723.74076432</v>
       </c>
-      <c r="F96" s="55">
+      <c r="F96" s="61">
         <v>86162087.193800971</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="13"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="62">
+        <f t="shared" si="1"/>
+        <v>282079636.54696333</v>
+      </c>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="28">
+      <c r="B97" s="58">
         <f>+'Activo-EEFF'!B97</f>
         <v>44440</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="59">
         <f>+'Activo-EEFF'!C97</f>
         <v>326326423620.5</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="60">
         <f>+'Activo-EEFF'!E97</f>
         <v>3759624290.6200018</v>
       </c>
-      <c r="E97" s="55">
+      <c r="E97" s="61">
         <v>395833913.48374116</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F97" s="61">
         <v>90852171.095407307</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="13"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="62">
+        <f t="shared" si="1"/>
+        <v>304981742.38833386</v>
+      </c>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B98" s="28">
+      <c r="B98" s="58">
         <f>+'Activo-EEFF'!B98</f>
         <v>44470</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="59">
         <f>+'Activo-EEFF'!C98</f>
         <v>330224366534.10004</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="60">
         <f>+'Activo-EEFF'!E98</f>
         <v>3707389266.920002</v>
       </c>
-      <c r="E98" s="55">
+      <c r="E98" s="61">
         <v>216175270.70641047</v>
       </c>
-      <c r="F98" s="55">
+      <c r="F98" s="61">
         <v>91309069.91744934</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="13"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="62">
+        <f t="shared" si="1"/>
+        <v>124866200.78896113</v>
+      </c>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B99" s="28">
+      <c r="B99" s="58">
         <f>+'Activo-EEFF'!B99</f>
         <v>44501</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="59">
         <f>+'Activo-EEFF'!C99</f>
         <v>333481658133.90002</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="60">
         <f>+'Activo-EEFF'!E99</f>
         <v>3682024029.3200021</v>
       </c>
-      <c r="E99" s="55">
+      <c r="E99" s="61">
         <v>207331068.3373659</v>
       </c>
-      <c r="F99" s="55">
+      <c r="F99" s="61">
         <v>91654911.624774948</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="13"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="62">
+        <f t="shared" si="1"/>
+        <v>115676156.71259095</v>
+      </c>
+      <c r="K99" s="64"/>
+      <c r="L99" s="64"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B100" s="28">
+      <c r="B100" s="58">
         <f>+'Activo-EEFF'!B100</f>
         <v>44531</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="59">
         <f>+'Activo-EEFF'!C100</f>
         <v>337665652935.5</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="60">
         <f>+'Activo-EEFF'!E100</f>
         <v>3532688606.8200021</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="61">
         <v>696417704.5925281</v>
       </c>
-      <c r="F100" s="55">
+      <c r="F100" s="61">
         <v>97023284.948238432</v>
       </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="13"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="62">
+        <f t="shared" si="1"/>
+        <v>599394419.64428973</v>
+      </c>
+      <c r="K100" s="64"/>
+      <c r="L100" s="64"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B101" s="28">
+      <c r="B101" s="58">
         <f>+'Activo-EEFF'!B101</f>
         <v>44562</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C101" s="59">
         <f>+'Activo-EEFF'!C101</f>
         <v>342181352328.40002</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="60">
         <f>+'Activo-EEFF'!E101</f>
         <v>3173240346.920002</v>
       </c>
-      <c r="E101" s="55">
+      <c r="E101" s="61">
         <v>306823911.50407916</v>
       </c>
-      <c r="F101" s="55">
+      <c r="F101" s="61">
         <v>100941469.45402795</v>
       </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="13"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="62">
+        <f t="shared" si="1"/>
+        <v>205882442.05005121</v>
+      </c>
+      <c r="K101" s="64"/>
+      <c r="L101" s="64"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B102" s="28">
+      <c r="B102" s="58">
         <f>+'Activo-EEFF'!B102</f>
         <v>44593</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C102" s="59">
         <f>+'Activo-EEFF'!C102</f>
         <v>346159692938.10004</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="60">
         <f>+'Activo-EEFF'!E102</f>
         <v>3078429372.0200019</v>
       </c>
-      <c r="E102" s="55">
+      <c r="E102" s="61">
         <v>413385922.40176827</v>
       </c>
-      <c r="F102" s="55">
+      <c r="F102" s="61">
         <v>107241081.78509788</v>
       </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="13"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="62">
+        <f t="shared" si="1"/>
+        <v>306144840.61667037</v>
+      </c>
+      <c r="K102" s="64"/>
+      <c r="L102" s="64"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B103" s="28">
+      <c r="B103" s="58">
         <f>+'Activo-EEFF'!B103</f>
         <v>44621</v>
       </c>
-      <c r="C103" s="18">
+      <c r="C103" s="59">
         <f>+'Activo-EEFF'!C103</f>
         <v>350234212509.59998</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="60">
         <f>+'Activo-EEFF'!E103</f>
         <v>2862479404.5200019</v>
       </c>
-      <c r="E103" s="55">
+      <c r="E103" s="61">
         <v>690550629.4706012</v>
       </c>
-      <c r="F103" s="55">
+      <c r="F103" s="61">
         <v>111706329.00483908</v>
       </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="13"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="62">
+        <f t="shared" si="1"/>
+        <v>578844300.46576214</v>
+      </c>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="28">
+      <c r="B104" s="58">
         <f>+'Activo-EEFF'!B104</f>
         <v>44652</v>
       </c>
-      <c r="C104" s="18">
+      <c r="C104" s="59">
         <f>+'Activo-EEFF'!C104</f>
         <v>354099776894.29999</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="60">
         <f>+'Activo-EEFF'!E104</f>
         <v>2642272148.1200018</v>
       </c>
-      <c r="E104" s="55">
+      <c r="E104" s="61">
         <v>385401746.91534573</v>
       </c>
-      <c r="F104" s="55">
+      <c r="F104" s="61">
         <v>113421513.42894603</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="13"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="62">
+        <f t="shared" si="1"/>
+        <v>271980233.48639971</v>
+      </c>
+      <c r="K104" s="64"/>
+      <c r="L104" s="64"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="28">
+      <c r="B105" s="58">
         <f>+'Activo-EEFF'!B105</f>
         <v>44682</v>
       </c>
-      <c r="C105" s="18">
+      <c r="C105" s="59">
         <f>+'Activo-EEFF'!C105</f>
         <v>357885393875.00006</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="60">
         <f>+'Activo-EEFF'!E105</f>
         <v>2591877426.420002</v>
       </c>
-      <c r="E105" s="55">
+      <c r="E105" s="61">
         <v>389732815.23815918</v>
       </c>
-      <c r="F105" s="55">
+      <c r="F105" s="61">
         <v>116188414.62581785</v>
       </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="13"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="62">
+        <f t="shared" si="1"/>
+        <v>273544400.61234134</v>
+      </c>
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" s="28">
+      <c r="B106" s="58">
         <f>+'Activo-EEFF'!B106</f>
         <v>44713</v>
       </c>
-      <c r="C106" s="18">
+      <c r="C106" s="59">
         <f>+'Activo-EEFF'!C106</f>
         <v>361853361531.79999</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="60">
         <f>+'Activo-EEFF'!E106</f>
         <v>2436993329.2200022</v>
       </c>
-      <c r="E106" s="55">
+      <c r="E106" s="61">
         <v>382109756.98510987</v>
       </c>
-      <c r="F106" s="55">
+      <c r="F106" s="61">
         <v>118463689.26058683</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="13"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="62">
+        <f t="shared" si="1"/>
+        <v>263646067.72452304</v>
+      </c>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" s="28">
+      <c r="B107" s="58">
         <f>+'Activo-EEFF'!B107</f>
         <v>44743</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C107" s="59">
         <f>+'Activo-EEFF'!C107</f>
         <v>366134608129.20007</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="60">
         <f>+'Activo-EEFF'!E107</f>
         <v>2243910197.8200021</v>
       </c>
-      <c r="E107" s="55">
+      <c r="E107" s="61">
         <v>383733921.75964504</v>
       </c>
-      <c r="F107" s="55">
+      <c r="F107" s="61">
         <v>120948389.04493459</v>
       </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="13"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="62">
+        <f t="shared" si="1"/>
+        <v>262785532.71471047</v>
+      </c>
+      <c r="K107" s="64"/>
+      <c r="L107" s="64"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" s="28">
+      <c r="B108" s="58">
         <f>+'Activo-EEFF'!B108</f>
         <v>44774</v>
       </c>
-      <c r="C108" s="18">
+      <c r="C108" s="59">
         <f>+'Activo-EEFF'!C108</f>
         <v>369924012667.29999</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="60">
         <f>+'Activo-EEFF'!E108</f>
         <v>2045708904.5200021</v>
       </c>
-      <c r="E108" s="55">
+      <c r="E108" s="61">
         <v>371530118.12866157</v>
       </c>
-      <c r="F108" s="55">
+      <c r="F108" s="61">
         <v>124835722.31045824</v>
       </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="13"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="62">
+        <f t="shared" si="1"/>
+        <v>246694395.81820333</v>
+      </c>
+      <c r="K108" s="64"/>
+      <c r="L108" s="64"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="28">
+      <c r="B109" s="58">
         <f>+'Activo-EEFF'!B109</f>
         <v>44805</v>
       </c>
-      <c r="C109" s="18">
+      <c r="C109" s="59">
         <f>+'Activo-EEFF'!C109</f>
         <v>373986594525.40002</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="60">
         <f>+'Activo-EEFF'!E109</f>
         <v>1763820854.3200021</v>
       </c>
-      <c r="E109" s="55">
+      <c r="E109" s="61">
         <v>386258912.36436009</v>
       </c>
-      <c r="F109" s="55">
+      <c r="F109" s="61">
         <v>127508089.46832369</v>
       </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="13"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="62">
+        <f t="shared" si="1"/>
+        <v>258750822.89603639</v>
+      </c>
+      <c r="K109" s="64"/>
+      <c r="L109" s="64"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="28">
+      <c r="B110" s="58">
         <f>+'Activo-EEFF'!B110</f>
         <v>44835</v>
       </c>
-      <c r="C110" s="18">
+      <c r="C110" s="59">
         <f>+'Activo-EEFF'!C110</f>
         <v>378564049492.90002</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="60">
         <f>+'Activo-EEFF'!E110</f>
         <v>1529476806.8200021</v>
       </c>
-      <c r="E110" s="55">
+      <c r="E110" s="61">
         <v>386252564.85252237</v>
       </c>
-      <c r="F110" s="55">
+      <c r="F110" s="61">
         <v>128951924.13048944</v>
       </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="13"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="62">
+        <f t="shared" si="1"/>
+        <v>257300640.72203293</v>
+      </c>
+      <c r="K110" s="64"/>
+      <c r="L110" s="64"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="28">
+      <c r="B111" s="58">
         <f>+'Activo-EEFF'!B111</f>
         <v>44866</v>
       </c>
-      <c r="C111" s="18">
+      <c r="C111" s="59">
         <f>+'Activo-EEFF'!C111</f>
         <v>381642367257</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="60">
         <f>+'Activo-EEFF'!E111</f>
         <v>1133307516.420002</v>
       </c>
-      <c r="E111" s="55">
+      <c r="E111" s="61">
         <v>392099454.11869901</v>
       </c>
-      <c r="F111" s="55">
+      <c r="F111" s="61">
         <v>130474452.98320839</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="13"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="62">
+        <f t="shared" si="1"/>
+        <v>261625001.13549063</v>
+      </c>
+      <c r="K111" s="64"/>
+      <c r="L111" s="64"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B112" s="28">
+      <c r="B112" s="58">
         <f>+'Activo-EEFF'!B112</f>
         <v>44896</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C112" s="59">
         <f>+'Activo-EEFF'!C112</f>
         <v>386531956440.5</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="60">
         <f>+'Activo-EEFF'!E112</f>
         <v>1004615559.320002</v>
       </c>
-      <c r="E112" s="55">
+      <c r="E112" s="61">
         <v>397747222.86756128</v>
       </c>
-      <c r="F112" s="55">
+      <c r="F112" s="61">
         <v>132101310.28625897</v>
       </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="13"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="62">
+        <f t="shared" si="1"/>
+        <v>265645912.58130231</v>
+      </c>
+      <c r="K112" s="64"/>
+      <c r="L112" s="64"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B113" s="28">
+      <c r="B113" s="58">
         <f>+'Activo-EEFF'!B113</f>
         <v>44927</v>
       </c>
-      <c r="C113" s="18">
+      <c r="C113" s="59">
         <f>+'Activo-EEFF'!C113</f>
         <v>391808915606.20001</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="60">
         <f>+'Activo-EEFF'!E113</f>
         <v>881512437.92000198</v>
       </c>
-      <c r="E113" s="55">
+      <c r="E113" s="61">
         <v>516145393.1898914</v>
       </c>
-      <c r="F113" s="55">
+      <c r="F113" s="61">
         <v>136619281.95217517</v>
       </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="13"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="62">
+        <f t="shared" si="1"/>
+        <v>379526111.2377162</v>
+      </c>
+      <c r="K113" s="64"/>
+      <c r="L113" s="64"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B114" s="28">
+      <c r="B114" s="58">
         <f>+'Activo-EEFF'!B114</f>
         <v>44958</v>
       </c>
-      <c r="C114" s="18">
+      <c r="C114" s="59">
         <f>+'Activo-EEFF'!C114</f>
         <v>396342895701.70001</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="60">
         <f>+'Activo-EEFF'!E114</f>
         <v>1007146246.520002</v>
       </c>
-      <c r="E114" s="55">
+      <c r="E114" s="61">
         <v>430053116.47056359</v>
       </c>
-      <c r="F114" s="55">
+      <c r="F114" s="61">
         <v>148462957.18465403</v>
       </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="13"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="62">
+        <f t="shared" si="1"/>
+        <v>281590159.28590953</v>
+      </c>
+      <c r="K114" s="64"/>
+      <c r="L114" s="64"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B115" s="28">
+      <c r="B115" s="58">
         <f>+'Activo-EEFF'!B115</f>
         <v>44986</v>
       </c>
-      <c r="C115" s="18">
+      <c r="C115" s="59">
         <f>+'Activo-EEFF'!C115</f>
         <v>402079122957.30005</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="60">
         <f>+'Activo-EEFF'!E115</f>
         <v>507438249.3200019</v>
       </c>
-      <c r="E115" s="55">
+      <c r="E115" s="61">
         <v>542774308.99396634</v>
       </c>
-      <c r="F115" s="55">
+      <c r="F115" s="61">
         <v>150961179.54698697</v>
       </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="13"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="62">
+        <f t="shared" si="1"/>
+        <v>391813129.4469794</v>
+      </c>
+      <c r="K115" s="64"/>
+      <c r="L115" s="64"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B116" s="28">
+      <c r="B116" s="58">
         <f>+'Activo-EEFF'!B116</f>
         <v>45017</v>
       </c>
-      <c r="C116" s="18">
+      <c r="C116" s="59">
         <f>+'Activo-EEFF'!C116</f>
         <v>406814537199.29999</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="60">
         <f>+'Activo-EEFF'!E116</f>
         <v>440214015.72000188</v>
       </c>
-      <c r="E116" s="55">
+      <c r="E116" s="61">
         <v>223967141.04559419</v>
       </c>
-      <c r="F116" s="55">
+      <c r="F116" s="61">
         <v>151669569.10891879</v>
       </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="13"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="62">
+        <f t="shared" si="1"/>
+        <v>72297571.9366754</v>
+      </c>
+      <c r="K116" s="64"/>
+      <c r="L116" s="64"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B117" s="28">
+      <c r="B117" s="58">
         <f>+'Activo-EEFF'!B117</f>
         <v>45047</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C117" s="59">
         <f>+'Activo-EEFF'!C117</f>
         <v>412750278076.40002</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="60">
         <f>+'Activo-EEFF'!E117</f>
         <v>258916424.02000189</v>
       </c>
-      <c r="E117" s="55">
+      <c r="E117" s="61">
         <v>378895520.50273049</v>
       </c>
-      <c r="F117" s="55">
+      <c r="F117" s="61">
         <v>158163116.58611515</v>
       </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="13"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="62">
+        <f t="shared" si="1"/>
+        <v>220732403.91661534</v>
+      </c>
+      <c r="K117" s="64"/>
+      <c r="L117" s="64"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B118" s="28">
+      <c r="B118" s="58">
         <f>+'Activo-EEFF'!B118</f>
         <v>45078</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C118" s="59">
         <f>+'Activo-EEFF'!C118</f>
         <v>421407795517.30005</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="60">
         <f>+'Activo-EEFF'!E118</f>
         <v>3544139678.7200022</v>
       </c>
-      <c r="E118" s="55">
+      <c r="E118" s="61">
         <v>404072824.65838474</v>
       </c>
-      <c r="F118" s="55">
+      <c r="F118" s="61">
         <v>162087690.05781502</v>
       </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="13"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="60"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="62">
+        <f t="shared" si="1"/>
+        <v>241985134.60056973</v>
+      </c>
+      <c r="K118" s="64"/>
+      <c r="L118" s="64"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B119" s="28">
+      <c r="B119" s="58">
         <f>+'Activo-EEFF'!B119</f>
         <v>45108</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C119" s="59">
         <f>+'Activo-EEFF'!C119</f>
         <v>423205615571.70001</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="60">
         <f>+'Activo-EEFF'!E119</f>
         <v>1389351393.8200021</v>
       </c>
-      <c r="E119" s="55">
+      <c r="E119" s="61">
         <v>378632746.90287423</v>
       </c>
-      <c r="F119" s="55">
+      <c r="F119" s="61">
         <v>164995827.70720044</v>
       </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="13"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="65"/>
+      <c r="J119" s="62">
+        <f t="shared" si="1"/>
+        <v>213636919.19567379</v>
+      </c>
+      <c r="K119" s="64"/>
+      <c r="L119" s="64"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B120" s="28">
+      <c r="B120" s="58">
         <f>+'Activo-EEFF'!B120</f>
         <v>45139</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C120" s="59">
         <f>+'Activo-EEFF'!C120</f>
         <v>424326103027.00006</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="60">
         <f>+'Activo-EEFF'!E120</f>
         <v>505232909.82000196</v>
       </c>
-      <c r="E120" s="55">
+      <c r="E120" s="61">
         <v>573239639.74809802</v>
       </c>
-      <c r="F120" s="55">
+      <c r="F120" s="61">
         <v>164708137.51544487</v>
       </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="13"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="60"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="62">
+        <f t="shared" si="1"/>
+        <v>408531502.23265314</v>
+      </c>
+      <c r="K120" s="64"/>
+      <c r="L120" s="64"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B121" s="28">
+      <c r="B121" s="58">
         <f>+'Activo-EEFF'!B121</f>
         <v>45170</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C121" s="59">
         <f>+'Activo-EEFF'!C121</f>
         <v>425715398215</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="60">
         <f>+'Activo-EEFF'!E121</f>
         <v>-649731316.0799979</v>
       </c>
-      <c r="E121" s="55">
+      <c r="E121" s="61">
         <v>388971992.79802918</v>
       </c>
-      <c r="F121" s="55">
+      <c r="F121" s="61">
         <v>166692883.96593127</v>
       </c>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="13"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="62">
+        <f t="shared" si="1"/>
+        <v>222279108.83209792</v>
+      </c>
+      <c r="K121" s="64"/>
+      <c r="L121" s="64"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B122" s="28">
+      <c r="B122" s="58">
         <f>+'Activo-EEFF'!B122</f>
         <v>45200</v>
       </c>
-      <c r="C122" s="18">
+      <c r="C122" s="59">
         <f>+'Activo-EEFF'!C122</f>
         <v>428093948915</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="60">
         <f>+'Activo-EEFF'!E122</f>
         <v>-1276980424.579998</v>
       </c>
-      <c r="E122" s="55">
+      <c r="E122" s="61">
         <v>411168232.12394786</v>
       </c>
-      <c r="F122" s="55">
+      <c r="F122" s="61">
         <v>173390069.12371826</v>
       </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="13"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="62">
+        <f t="shared" si="1"/>
+        <v>237778163.0002296</v>
+      </c>
+      <c r="K122" s="64"/>
+      <c r="L122" s="64"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B123" s="28">
+      <c r="B123" s="58">
         <f>+'Activo-EEFF'!B123</f>
         <v>45231</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C123" s="59">
         <f>+'Activo-EEFF'!C123</f>
         <v>435502206891.29999</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="60">
         <f>+'Activo-EEFF'!E123</f>
         <v>4451189030.2200022</v>
       </c>
-      <c r="E123" s="55">
+      <c r="E123" s="61">
         <v>408843511.87641704</v>
       </c>
-      <c r="F123" s="55">
+      <c r="F123" s="61">
         <v>170712073.68087998</v>
       </c>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="13"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="62">
+        <f t="shared" si="1"/>
+        <v>238131438.19553706</v>
+      </c>
+      <c r="K123" s="64"/>
+      <c r="L123" s="64"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B124" s="29">
+      <c r="B124" s="68">
         <f>+'Activo-EEFF'!B124</f>
         <v>45261</v>
       </c>
-      <c r="C124" s="24">
+      <c r="C124" s="69">
         <f>+'Activo-EEFF'!C124</f>
         <v>437031071554.89996</v>
       </c>
-      <c r="D124" s="26">
+      <c r="D124" s="70">
         <f>+'Activo-EEFF'!E124</f>
         <v>1989350214.7200022</v>
       </c>
-      <c r="E124" s="56">
+      <c r="E124" s="71">
         <v>434709349.57501274</v>
       </c>
-      <c r="F124" s="56">
+      <c r="F124" s="71">
         <v>175311355.35900009</v>
       </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="27"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="62">
+        <f>J4+D5+E5-F5</f>
+        <v>9274759600.9428635</v>
+      </c>
+      <c r="K124" s="64"/>
+      <c r="L124" s="64"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E125" s="62">
+        <f>SUM(E4:E124)</f>
+        <v>39242385109.198006</v>
+      </c>
+      <c r="F125" s="62">
+        <f>SUM(F4:F124)</f>
+        <v>6977990132.1133614</v>
+      </c>
+      <c r="G125" s="62">
+        <f>E125-F125</f>
+        <v>32264394977.084644</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:I92" xr:uid="{5074447C-5EBD-42F1-B634-75C32ECA84B1}"/>
@@ -12825,7 +13413,7 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -16189,7 +16777,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -19553,7 +20141,7 @@
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
